--- a/incident.xlsx
+++ b/incident.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JERBIM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98023A4C-1095-4DF7-B96A-98F8BEFF3D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A493E0-43CD-4FD5-A74C-A91602CE588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EBE0B0A5-3143-489E-9ABD-2AB47EDA0179}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
   </sheetData>

--- a/incident.xlsx
+++ b/incident.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JERBIM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A493E0-43CD-4FD5-A74C-A91602CE588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29831DD4-627E-4FA6-ACEE-EE063A4E0694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EBE0B0A5-3143-489E-9ABD-2AB47EDA0179}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F261235-356E-4436-818B-38D6CF64F7B3}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -422,7 +416,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>1</v>

--- a/incident.xlsx
+++ b/incident.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JERBIM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29831DD4-627E-4FA6-ACEE-EE063A4E0694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56E7017-48AD-43D7-BCBE-7D78FC149A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EBE0B0A5-3143-489E-9ABD-2AB47EDA0179}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>1</v>
